--- a/InschattingWerkzaamheden.xlsx
+++ b/InschattingWerkzaamheden.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\nlablfls02.corp.fnsteel.net\medewerkers\levolru\Desktop\Projecten\MES Support en beheer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\nlablfls02.corp.fnsteel.net\medewerkers\levolru\Documents\GitHub\Hello-World\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B3C7C23-8513-49E0-B2FE-BC94BC14D06A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{469C5B95-E1DF-41C5-AF24-4CDB67A51C17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{6058F3C1-983A-433C-B28B-2AD4B1CF427F}"/>
   </bookViews>
@@ -128,9 +128,6 @@
     <t>APC - Dikke knuppels Ovako</t>
   </si>
   <si>
-    <t>Ook Overdracht aan Willy</t>
-  </si>
-  <si>
     <t>Ook Overdracht aan Willy, Paul geeft aan dat de rapportage omgeving ook een burning platform is (o.a. Cristal Reports)</t>
   </si>
   <si>
@@ -150,6 +147,9 @@
   </si>
   <si>
     <t>onhold</t>
+  </si>
+  <si>
+    <t>Ook Overdracht aan Willy x</t>
   </si>
 </sst>
 </file>
@@ -548,9 +548,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B79FEF8B-997B-460F-AD04-46604423A156}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -595,13 +595,13 @@
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3" s="3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -632,12 +632,12 @@
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -649,7 +649,7 @@
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -709,10 +709,10 @@
         <v>13</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -720,7 +720,7 @@
         <v>16</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E15" t="s">
         <v>15</v>
